--- a/Konwencje.xlsx
+++ b/Konwencje.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bojar\Documents\NAUKA\CODECOOL\GRANDE\el-proyecte-grande-java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bojar\Documents\NAUKA\CODECOOL\DOGMATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC826999-1C3E-4163-AEF5-C52773E5C613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A76C21-6610-44C4-A597-836EFF3289F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7C18D47-5F88-455C-8597-76E7D2D7D913}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C7C18D47-5F88-455C-8597-76E7D2D7D913}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
-    <sheet name="Konwencja nazewnicza" sheetId="1" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
+    <sheet name="Konwencja nazewnicza" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="90">
   <si>
     <t>LP</t>
   </si>
@@ -211,6 +212,105 @@
   </si>
   <si>
     <t>provincesService</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>conversations</t>
+  </si>
+  <si>
+    <t>lesson_steps</t>
+  </si>
+  <si>
+    <t>lessons</t>
+  </si>
+  <si>
+    <t>lessons_animals</t>
+  </si>
+  <si>
+    <t>login_attempts</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>time_unit</t>
+  </si>
+  <si>
+    <t>training_levels</t>
+  </si>
+  <si>
+    <t>user_types</t>
+  </si>
+  <si>
+    <t>animal_types</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>appusers</t>
+  </si>
+  <si>
+    <t>breeds</t>
+  </si>
+  <si>
+    <t>care_announcement_types</t>
+  </si>
+  <si>
+    <t>care_announcements</t>
+  </si>
+  <si>
+    <t>care_announcements_tags</t>
+  </si>
+  <si>
+    <t>Tabel</t>
+  </si>
+  <si>
+    <t>Opracowana</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>Osoba</t>
+  </si>
+  <si>
+    <t>Arek</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Nazwa id</t>
+  </si>
+  <si>
+    <t>date_modify</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Razem</t>
+  </si>
+  <si>
+    <t>Skońćzone</t>
+  </si>
+  <si>
+    <t>Do uzupełnienia</t>
+  </si>
+  <si>
+    <t>Braki</t>
   </si>
 </sst>
 </file>
@@ -226,12 +326,18 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,11 +361,298 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -753,7 +1146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0109663-BAE1-4865-8430-1C617A0D8BB3}" name="Tabela przestawna1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0109663-BAE1-4865-8430-1C617A0D8BB3}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:Q20" firstHeaderRow="2" firstDataRow="2" firstDataCol="11" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -994,7 +1387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA6C815C-5AA9-47DF-BFB5-75DB9BAE7CA7}" name="Tabela1" displayName="Tabela1" ref="A1:T15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA6C815C-5AA9-47DF-BFB5-75DB9BAE7CA7}" name="Tabela1" displayName="Tabela1" ref="A1:T15" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:T15" xr:uid="{FA6C815C-5AA9-47DF-BFB5-75DB9BAE7CA7}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{A30826DB-8384-496A-9D14-38BA3785F197}" name="LP">
@@ -1341,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F56AF-0FBF-4148-86D6-676CB13F090E}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1624,6 +2017,871 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251A146-35D4-4760-93E6-A9856726555B}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(C2:C22,B24)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(C2:C22,B25)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C24:C25)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(B2:B22,C28)</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(B2:B22,C29)</f>
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(D$2:D$22,$D$31)</f>
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF(D$2:D$22,$E$31)</f>
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f>D32+E32</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <f>COUNTIF(E$2:E$22,$D$31)</f>
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIF(E$2:E$22,$E$31)</f>
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F37" si="0">D33+E33</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <f>COUNTIF(E$2:E$22,$D$31)</f>
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIF(F$2:F$22,$E$31)</f>
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35">
+        <f>COUNTIF(E$2:E$22,$D$31)</f>
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <f>COUNTIF(G$2:G$22,$E$31)</f>
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <f>COUNTIF(E$2:E$22,$D$31)</f>
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <f>COUNTIF(H$2:H$22,$E$31)</f>
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <f>COUNTIF(E$2:E$22,$D$31)</f>
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <f>COUNTIF(I$2:I$22,$E$31)</f>
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:H22">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Nie"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B22 B24:B26 C28:C29">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Nie"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I22">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Nie"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Nie"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Nie"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EF88E9-A3E8-46CD-AC47-76C4FA16F352}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -1646,7 +2904,7 @@
     <col min="20" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
